--- a/projects_list.xlsx
+++ b/projects_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\venv\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E273FDF-89EB-41A4-BFAD-26D8568BDC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74834F34-3B6B-4BF0-A49C-3AF9963F09C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DDDDC505-2C62-423F-8E1B-F75D042C142A}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>python-streamlit-HTML/CSS-BootStrap</t>
   </si>
   <si>
-    <t>python-plotly-pandas-MS_SQL-HTML/CSS-Javascript</t>
-  </si>
-  <si>
     <t>Portfolio that allow me to introduce myself and show my knowledge and experience
 that I collected and improved during my career. This Website includes all the nessecary information
  that hopfully will allow me grow my network and gain more expirience if I will be contacted in order to accomplish a project.</t>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>https://thumbs.dreamstime.com/b/designer-d-modeling-online-service-platform-digital-drawing-electronic-tools-equipment-portfolio-flat-illustration-190547633.jpg</t>
+  </si>
+  <si>
+    <t>python-plotly-pandas-MS_SQL-HTML/CSS-Javascript-streamlit</t>
   </si>
 </sst>
 </file>
@@ -543,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28128940-68C8-4CF0-8A0B-7F9760DEDDA0}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +601,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
@@ -627,7 +627,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -653,7 +653,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>21</v>
@@ -673,7 +673,7 @@
         <v>44348</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>16</v>
@@ -702,16 +702,16 @@
         <v>29</v>
       </c>
       <c r="E6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
         <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
